--- a/ProbableCasesOverTimeByCounty/2021-02-16.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-02-16.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/15/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/16/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Probable 2021-02-15</t>
+  </si>
+  <si>
+    <t>Probable 2021-02-16</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1327,6 +1330,7 @@
     <col min="106" max="106" width="12.0" customWidth="true"/>
     <col min="107" max="107" width="12.0" customWidth="true"/>
     <col min="108" max="108" width="12.0" customWidth="true"/>
+    <col min="109" max="109" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1664,10 +1668,13 @@
       <c r="DD3" t="s" s="10">
         <v>109</v>
       </c>
+      <c r="DE3" t="s" s="10">
+        <v>110</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -1988,12 +1995,15 @@
         <v>1237.0</v>
       </c>
       <c r="DD4" t="n">
+        <v>1237.0</v>
+      </c>
+      <c r="DE4" t="n">
         <v>1237.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2314,12 +2324,15 @@
         <v>0.0</v>
       </c>
       <c r="DD5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2640,12 +2653,15 @@
         <v>3150.0</v>
       </c>
       <c r="DD6" t="n">
+        <v>3150.0</v>
+      </c>
+      <c r="DE6" t="n">
         <v>3150.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -2967,11 +2983,14 @@
       </c>
       <c r="DD7" t="n">
         <v>293.0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>266.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3292,12 +3311,15 @@
         <v>88.0</v>
       </c>
       <c r="DD8" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="DE8" t="n">
         <v>88.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3618,12 +3640,15 @@
         <v>42.0</v>
       </c>
       <c r="DD9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DE9" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -3944,12 +3969,15 @@
         <v>1167.0</v>
       </c>
       <c r="DD10" t="n">
+        <v>1167.0</v>
+      </c>
+      <c r="DE10" t="n">
         <v>1167.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4270,12 +4298,15 @@
         <v>261.0</v>
       </c>
       <c r="DD11" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="DE11" t="n">
         <v>262.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -4596,12 +4627,15 @@
         <v>209.0</v>
       </c>
       <c r="DD12" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="DE12" t="n">
         <v>209.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -4922,12 +4956,15 @@
         <v>278.0</v>
       </c>
       <c r="DD13" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="DE13" t="n">
         <v>278.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -5249,11 +5286,14 @@
       </c>
       <c r="DD14" t="n">
         <v>1824.0</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>1829.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -5574,12 +5614,15 @@
         <v>169.0</v>
       </c>
       <c r="DD15" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="DE15" t="n">
         <v>169.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -5901,11 +5944,14 @@
       </c>
       <c r="DD16" t="n">
         <v>457.0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>365.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6226,12 +6272,15 @@
         <v>0.0</v>
       </c>
       <c r="DD17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -6552,12 +6601,15 @@
         <v>29208.0</v>
       </c>
       <c r="DD18" t="n">
+        <v>29208.0</v>
+      </c>
+      <c r="DE18" t="n">
         <v>29208.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -6879,11 +6931,14 @@
       </c>
       <c r="DD19" t="n">
         <v>109.0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>111.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -7204,12 +7259,15 @@
         <v>7.0</v>
       </c>
       <c r="DD20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DE20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -7531,11 +7589,14 @@
       </c>
       <c r="DD21" t="n">
         <v>280.0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -7857,11 +7918,14 @@
       </c>
       <c r="DD22" t="n">
         <v>1871.0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>1878.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -8183,11 +8247,14 @@
       </c>
       <c r="DD23" t="n">
         <v>4585.0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>4607.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -8508,12 +8575,15 @@
         <v>3479.0</v>
       </c>
       <c r="DD24" t="n">
+        <v>3479.0</v>
+      </c>
+      <c r="DE24" t="n">
         <v>3479.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -8834,12 +8904,15 @@
         <v>77.0</v>
       </c>
       <c r="DD25" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="DE25" t="n">
         <v>80.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -9160,12 +9233,15 @@
         <v>58.0</v>
       </c>
       <c r="DD26" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="DE26" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -9487,11 +9563,14 @@
       </c>
       <c r="DD27" t="n">
         <v>107.0</v>
+      </c>
+      <c r="DE27" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -9812,12 +9891,15 @@
         <v>2119.0</v>
       </c>
       <c r="DD28" t="n">
+        <v>2119.0</v>
+      </c>
+      <c r="DE28" t="n">
         <v>2119.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -10139,11 +10221,14 @@
       </c>
       <c r="DD29" t="n">
         <v>382.0</v>
+      </c>
+      <c r="DE29" t="n">
+        <v>385.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -10465,11 +10550,14 @@
       </c>
       <c r="DD30" t="n">
         <v>387.0</v>
+      </c>
+      <c r="DE30" t="n">
+        <v>403.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -10790,12 +10878,15 @@
         <v>267.0</v>
       </c>
       <c r="DD31" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="DE31" t="n">
         <v>267.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -11116,12 +11207,15 @@
         <v>186.0</v>
       </c>
       <c r="DD32" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="DE32" t="n">
         <v>186.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -11442,12 +11536,15 @@
         <v>533.0</v>
       </c>
       <c r="DD33" t="n">
+        <v>533.0</v>
+      </c>
+      <c r="DE33" t="n">
         <v>533.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -11768,12 +11865,15 @@
         <v>0.0</v>
       </c>
       <c r="DD34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -12094,12 +12194,15 @@
         <v>368.0</v>
       </c>
       <c r="DD35" t="n">
+        <v>369.0</v>
+      </c>
+      <c r="DE35" t="n">
         <v>369.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -12420,12 +12523,15 @@
         <v>141.0</v>
       </c>
       <c r="DD36" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="DE36" t="n">
         <v>141.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -12746,12 +12852,15 @@
         <v>639.0</v>
       </c>
       <c r="DD37" t="n">
+        <v>639.0</v>
+      </c>
+      <c r="DE37" t="n">
         <v>639.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -13072,12 +13181,15 @@
         <v>251.0</v>
       </c>
       <c r="DD38" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="DE38" t="n">
         <v>251.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -13398,12 +13510,15 @@
         <v>0.0</v>
       </c>
       <c r="DD39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -13724,12 +13839,15 @@
         <v>1780.0</v>
       </c>
       <c r="DD40" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="DE40" t="n">
         <v>1780.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -14050,12 +14168,15 @@
         <v>24.0</v>
       </c>
       <c r="DD41" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="DE41" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -14376,12 +14497,15 @@
         <v>76.0</v>
       </c>
       <c r="DD42" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DE42" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -14702,12 +14826,15 @@
         <v>22.0</v>
       </c>
       <c r="DD43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="DE43" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -15028,12 +15155,15 @@
         <v>224.0</v>
       </c>
       <c r="DD44" t="n">
+        <v>224.0</v>
+      </c>
+      <c r="DE44" t="n">
         <v>224.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -15354,12 +15484,15 @@
         <v>231.0</v>
       </c>
       <c r="DD45" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="DE45" t="n">
         <v>231.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -15681,11 +15814,14 @@
       </c>
       <c r="DD46" t="n">
         <v>12098.0</v>
+      </c>
+      <c r="DE46" t="n">
+        <v>12294.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -16006,12 +16142,15 @@
         <v>70.0</v>
       </c>
       <c r="DD47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DE47" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -16332,12 +16471,15 @@
         <v>239.0</v>
       </c>
       <c r="DD48" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="DE48" t="n">
         <v>239.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -16658,12 +16800,15 @@
         <v>4172.0</v>
       </c>
       <c r="DD49" t="n">
+        <v>4172.0</v>
+      </c>
+      <c r="DE49" t="n">
         <v>4172.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -16984,12 +17129,15 @@
         <v>246.0</v>
       </c>
       <c r="DD50" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="DE50" t="n">
         <v>246.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -17310,12 +17458,15 @@
         <v>137.0</v>
       </c>
       <c r="DD51" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="DE51" t="n">
         <v>137.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -17636,12 +17787,15 @@
         <v>394.0</v>
       </c>
       <c r="DD52" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="DE52" t="n">
         <v>394.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -17963,11 +18117,14 @@
       </c>
       <c r="DD53" t="n">
         <v>226.0</v>
+      </c>
+      <c r="DE53" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -18288,12 +18445,15 @@
         <v>45.0</v>
       </c>
       <c r="DD54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DE54" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -18614,12 +18774,15 @@
         <v>302.0</v>
       </c>
       <c r="DD55" t="n">
+        <v>303.0</v>
+      </c>
+      <c r="DE55" t="n">
         <v>303.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -18940,12 +19103,15 @@
         <v>347.0</v>
       </c>
       <c r="DD56" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="DE56" t="n">
         <v>349.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -19266,12 +19432,15 @@
         <v>196.0</v>
       </c>
       <c r="DD57" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="DE57" t="n">
         <v>196.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -19592,12 +19761,15 @@
         <v>23.0</v>
       </c>
       <c r="DD58" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DE58" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -19918,12 +20090,15 @@
         <v>49.0</v>
       </c>
       <c r="DD59" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DE59" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -20245,11 +20420,14 @@
       </c>
       <c r="DD60" t="n">
         <v>33657.0</v>
+      </c>
+      <c r="DE60" t="n">
+        <v>33742.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -20570,12 +20748,15 @@
         <v>0.0</v>
       </c>
       <c r="DD61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -20896,12 +21077,15 @@
         <v>640.0</v>
       </c>
       <c r="DD62" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="DE62" t="n">
         <v>640.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -21222,12 +21406,15 @@
         <v>122.0</v>
       </c>
       <c r="DD63" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="DE63" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -21548,12 +21735,15 @@
         <v>13728.0</v>
       </c>
       <c r="DD64" t="n">
+        <v>13728.0</v>
+      </c>
+      <c r="DE64" t="n">
         <v>13728.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -21874,12 +22064,15 @@
         <v>0.0</v>
       </c>
       <c r="DD65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -22200,12 +22393,15 @@
         <v>57.0</v>
       </c>
       <c r="DD66" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DE66" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -22526,12 +22722,15 @@
         <v>140.0</v>
       </c>
       <c r="DD67" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="DE67" t="n">
         <v>140.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -22852,12 +23051,15 @@
         <v>174.0</v>
       </c>
       <c r="DD68" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DE68" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -23179,11 +23381,14 @@
       </c>
       <c r="DD69" t="n">
         <v>92.0</v>
+      </c>
+      <c r="DE69" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -23504,12 +23709,15 @@
         <v>332.0</v>
       </c>
       <c r="DD70" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="DE70" t="n">
         <v>332.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -23830,12 +24038,15 @@
         <v>7455.0</v>
       </c>
       <c r="DD71" t="n">
+        <v>7455.0</v>
+      </c>
+      <c r="DE71" t="n">
         <v>7455.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -24156,12 +24367,15 @@
         <v>39.0</v>
       </c>
       <c r="DD72" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="DE72" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -24482,12 +24696,15 @@
         <v>2596.0</v>
       </c>
       <c r="DD73" t="n">
+        <v>2596.0</v>
+      </c>
+      <c r="DE73" t="n">
         <v>2596.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -24808,12 +25025,15 @@
         <v>0.0</v>
       </c>
       <c r="DD74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -25134,12 +25354,15 @@
         <v>1221.0</v>
       </c>
       <c r="DD75" t="n">
+        <v>1221.0</v>
+      </c>
+      <c r="DE75" t="n">
         <v>1221.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -25461,11 +25684,14 @@
       </c>
       <c r="DD76" t="n">
         <v>154.0</v>
+      </c>
+      <c r="DE76" t="n">
+        <v>156.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -25786,12 +26012,15 @@
         <v>636.0</v>
       </c>
       <c r="DD77" t="n">
+        <v>636.0</v>
+      </c>
+      <c r="DE77" t="n">
         <v>636.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -26113,11 +26342,14 @@
       </c>
       <c r="DD78" t="n">
         <v>842.0</v>
+      </c>
+      <c r="DE78" t="n">
+        <v>843.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -26438,12 +26670,15 @@
         <v>0.0</v>
       </c>
       <c r="DD79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -26764,12 +26999,15 @@
         <v>439.0</v>
       </c>
       <c r="DD80" t="n">
+        <v>439.0</v>
+      </c>
+      <c r="DE80" t="n">
         <v>439.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -27090,12 +27328,15 @@
         <v>32.0</v>
       </c>
       <c r="DD81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="DE81" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -27416,12 +27657,15 @@
         <v>6738.0</v>
       </c>
       <c r="DD82" t="n">
+        <v>6738.0</v>
+      </c>
+      <c r="DE82" t="n">
         <v>6738.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -27742,12 +27986,15 @@
         <v>202.0</v>
       </c>
       <c r="DD83" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="DE83" t="n">
         <v>202.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -28069,11 +28316,14 @@
       </c>
       <c r="DD84" t="n">
         <v>689.0</v>
+      </c>
+      <c r="DE84" t="n">
+        <v>698.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -28394,12 +28644,15 @@
         <v>529.0</v>
       </c>
       <c r="DD85" t="n">
+        <v>529.0</v>
+      </c>
+      <c r="DE85" t="n">
         <v>529.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -28720,12 +28973,15 @@
         <v>0.0</v>
       </c>
       <c r="DD86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -29046,12 +29302,15 @@
         <v>4469.0</v>
       </c>
       <c r="DD87" t="n">
+        <v>4469.0</v>
+      </c>
+      <c r="DE87" t="n">
         <v>4469.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -29372,12 +29631,15 @@
         <v>147.0</v>
       </c>
       <c r="DD88" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="DE88" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -29698,12 +29960,15 @@
         <v>681.0</v>
       </c>
       <c r="DD89" t="n">
+        <v>681.0</v>
+      </c>
+      <c r="DE89" t="n">
         <v>681.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -30024,12 +30289,15 @@
         <v>62.0</v>
       </c>
       <c r="DD90" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="DE90" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -30350,12 +30618,15 @@
         <v>133.0</v>
       </c>
       <c r="DD91" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="DE91" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -30676,12 +30947,15 @@
         <v>238.0</v>
       </c>
       <c r="DD92" t="n">
+        <v>238.0</v>
+      </c>
+      <c r="DE92" t="n">
         <v>238.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -31002,12 +31276,15 @@
         <v>276.0</v>
       </c>
       <c r="DD93" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="DE93" t="n">
         <v>276.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -31328,12 +31605,15 @@
         <v>0.0</v>
       </c>
       <c r="DD94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -31654,12 +31934,15 @@
         <v>4665.0</v>
       </c>
       <c r="DD95" t="n">
+        <v>4665.0</v>
+      </c>
+      <c r="DE95" t="n">
         <v>4665.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -31981,11 +32264,14 @@
       </c>
       <c r="DD96" t="n">
         <v>290.0</v>
+      </c>
+      <c r="DE96" t="n">
+        <v>293.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -32306,12 +32592,15 @@
         <v>2728.0</v>
       </c>
       <c r="DD97" t="n">
+        <v>2728.0</v>
+      </c>
+      <c r="DE97" t="n">
         <v>2728.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -32632,12 +32921,15 @@
         <v>0.0</v>
       </c>
       <c r="DD98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -32958,12 +33250,15 @@
         <v>98.0</v>
       </c>
       <c r="DD99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="DE99" t="n">
         <v>98.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -33285,11 +33580,14 @@
       </c>
       <c r="DD100" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DE100" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -33610,12 +33908,15 @@
         <v>434.0</v>
       </c>
       <c r="DD101" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="DE101" t="n">
         <v>434.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -33936,12 +34237,15 @@
         <v>55.0</v>
       </c>
       <c r="DD102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="DE102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -34262,12 +34566,15 @@
         <v>2347.0</v>
       </c>
       <c r="DD103" t="n">
+        <v>2347.0</v>
+      </c>
+      <c r="DE103" t="n">
         <v>2347.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -34588,12 +34895,15 @@
         <v>0.0</v>
       </c>
       <c r="DD104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -34915,11 +35225,14 @@
       </c>
       <c r="DD105" t="n">
         <v>2143.0</v>
+      </c>
+      <c r="DE105" t="n">
+        <v>2145.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -35240,12 +35553,15 @@
         <v>57.0</v>
       </c>
       <c r="DD106" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DE106" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -35566,12 +35882,15 @@
         <v>231.0</v>
       </c>
       <c r="DD107" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="DE107" t="n">
         <v>231.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -35892,12 +36211,15 @@
         <v>1761.0</v>
       </c>
       <c r="DD108" t="n">
+        <v>1761.0</v>
+      </c>
+      <c r="DE108" t="n">
         <v>1761.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -36218,12 +36540,15 @@
         <v>40.0</v>
       </c>
       <c r="DD109" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="DE109" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -36544,12 +36869,15 @@
         <v>1747.0</v>
       </c>
       <c r="DD110" t="n">
+        <v>1747.0</v>
+      </c>
+      <c r="DE110" t="n">
         <v>1747.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -36870,12 +37198,15 @@
         <v>21989.0</v>
       </c>
       <c r="DD111" t="n">
+        <v>21989.0</v>
+      </c>
+      <c r="DE111" t="n">
         <v>21989.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -37197,11 +37528,14 @@
       </c>
       <c r="DD112" t="n">
         <v>634.0</v>
+      </c>
+      <c r="DE112" t="n">
+        <v>638.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -37522,12 +37856,15 @@
         <v>264.0</v>
       </c>
       <c r="DD113" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="DE113" t="n">
         <v>264.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -37848,12 +38185,15 @@
         <v>2010.0</v>
       </c>
       <c r="DD114" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="DE114" t="n">
         <v>2010.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -38175,11 +38515,14 @@
       </c>
       <c r="DD115" t="n">
         <v>1364.0</v>
+      </c>
+      <c r="DE115" t="n">
+        <v>1368.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -38501,11 +38844,14 @@
       </c>
       <c r="DD116" t="n">
         <v>672.0</v>
+      </c>
+      <c r="DE116" t="n">
+        <v>675.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -38826,12 +39172,15 @@
         <v>1499.0</v>
       </c>
       <c r="DD117" t="n">
+        <v>1499.0</v>
+      </c>
+      <c r="DE117" t="n">
         <v>1499.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -39152,12 +39501,15 @@
         <v>79.0</v>
       </c>
       <c r="DD118" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="DE118" t="n">
         <v>82.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -39478,12 +39830,15 @@
         <v>0.0</v>
       </c>
       <c r="DD119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -39804,12 +40159,15 @@
         <v>464.0</v>
       </c>
       <c r="DD120" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="DE120" t="n">
         <v>464.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -40130,12 +40488,15 @@
         <v>59.0</v>
       </c>
       <c r="DD121" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="DE121" t="n">
         <v>59.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -40456,12 +40817,15 @@
         <v>74.0</v>
       </c>
       <c r="DD122" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="DE122" t="n">
         <v>74.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -40782,12 +41146,15 @@
         <v>158.0</v>
       </c>
       <c r="DD123" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="DE123" t="n">
         <v>158.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -41108,12 +41475,15 @@
         <v>1347.0</v>
       </c>
       <c r="DD124" t="n">
+        <v>1347.0</v>
+      </c>
+      <c r="DE124" t="n">
         <v>1347.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -41434,12 +41804,15 @@
         <v>37.0</v>
       </c>
       <c r="DD125" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="DE125" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -41760,12 +42133,15 @@
         <v>0.0</v>
       </c>
       <c r="DD126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -42087,11 +42463,14 @@
       </c>
       <c r="DD127" t="n">
         <v>37.0</v>
+      </c>
+      <c r="DE127" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -42413,11 +42792,14 @@
       </c>
       <c r="DD128" t="n">
         <v>509.0</v>
+      </c>
+      <c r="DE128" t="n">
+        <v>394.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -42738,12 +43120,15 @@
         <v>2332.0</v>
       </c>
       <c r="DD129" t="n">
+        <v>2332.0</v>
+      </c>
+      <c r="DE129" t="n">
         <v>2332.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -43064,12 +43449,15 @@
         <v>651.0</v>
       </c>
       <c r="DD130" t="n">
+        <v>651.0</v>
+      </c>
+      <c r="DE130" t="n">
         <v>651.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -43390,12 +43778,15 @@
         <v>120.0</v>
       </c>
       <c r="DD131" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="DE131" t="n">
         <v>120.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -43716,12 +44107,15 @@
         <v>1967.0</v>
       </c>
       <c r="DD132" t="n">
+        <v>1967.0</v>
+      </c>
+      <c r="DE132" t="n">
         <v>1967.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -44042,12 +44436,15 @@
         <v>1164.0</v>
       </c>
       <c r="DD133" t="n">
+        <v>1164.0</v>
+      </c>
+      <c r="DE133" t="n">
         <v>1164.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -44368,12 +44765,15 @@
         <v>16.0</v>
       </c>
       <c r="DD134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DE134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -44694,12 +45094,15 @@
         <v>41.0</v>
       </c>
       <c r="DD135" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="DE135" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -45020,12 +45423,15 @@
         <v>1856.0</v>
       </c>
       <c r="DD136" t="n">
+        <v>1856.0</v>
+      </c>
+      <c r="DE136" t="n">
         <v>1856.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -45346,12 +45752,15 @@
         <v>54.0</v>
       </c>
       <c r="DD137" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="DE137" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -45672,12 +46081,15 @@
         <v>6.0</v>
       </c>
       <c r="DD138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DE138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -45998,12 +46410,15 @@
         <v>9.0</v>
       </c>
       <c r="DD139" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DE139" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -46325,11 +46740,14 @@
       </c>
       <c r="DD140" t="n">
         <v>612.0</v>
+      </c>
+      <c r="DE140" t="n">
+        <v>542.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -46650,12 +47068,15 @@
         <v>76.0</v>
       </c>
       <c r="DD141" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="DE141" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -46976,12 +47397,15 @@
         <v>2905.0</v>
       </c>
       <c r="DD142" t="n">
+        <v>2905.0</v>
+      </c>
+      <c r="DE142" t="n">
         <v>2905.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -47302,12 +47726,15 @@
         <v>430.0</v>
       </c>
       <c r="DD143" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="DE143" t="n">
         <v>430.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -47629,11 +48056,14 @@
       </c>
       <c r="DD144" t="n">
         <v>311.0</v>
+      </c>
+      <c r="DE144" t="n">
+        <v>316.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -47954,12 +48384,15 @@
         <v>191.0</v>
       </c>
       <c r="DD145" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="DE145" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -48280,12 +48713,15 @@
         <v>351.0</v>
       </c>
       <c r="DD146" t="n">
+        <v>351.0</v>
+      </c>
+      <c r="DE146" t="n">
         <v>351.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -48607,11 +49043,14 @@
       </c>
       <c r="DD147" t="n">
         <v>1006.0</v>
+      </c>
+      <c r="DE147" t="n">
+        <v>1008.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -48933,11 +49372,14 @@
       </c>
       <c r="DD148" t="n">
         <v>317.0</v>
+      </c>
+      <c r="DE148" t="n">
+        <v>318.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -49259,11 +49701,14 @@
       </c>
       <c r="DD149" t="n">
         <v>1442.0</v>
+      </c>
+      <c r="DE149" t="n">
+        <v>1444.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -49585,11 +50030,14 @@
       </c>
       <c r="DD150" t="n">
         <v>543.0</v>
+      </c>
+      <c r="DE150" t="n">
+        <v>546.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -49910,12 +50358,15 @@
         <v>23.0</v>
       </c>
       <c r="DD151" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DE151" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -50236,12 +50687,15 @@
         <v>249.0</v>
       </c>
       <c r="DD152" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="DE152" t="n">
         <v>249.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -50563,11 +51017,14 @@
       </c>
       <c r="DD153" t="n">
         <v>409.0</v>
+      </c>
+      <c r="DE153" t="n">
+        <v>413.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -50888,12 +51345,15 @@
         <v>0.0</v>
       </c>
       <c r="DD154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -51214,12 +51674,15 @@
         <v>0.0</v>
       </c>
       <c r="DD155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -51540,12 +52003,15 @@
         <v>0.0</v>
       </c>
       <c r="DD156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -51867,11 +52333,14 @@
       </c>
       <c r="DD157" t="n">
         <v>144.0</v>
+      </c>
+      <c r="DE157" t="n">
+        <v>145.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -52192,12 +52661,15 @@
         <v>0.0</v>
       </c>
       <c r="DD158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -52518,12 +52990,15 @@
         <v>19.0</v>
       </c>
       <c r="DD159" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DE159" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -52845,11 +53320,14 @@
       </c>
       <c r="DD160" t="n">
         <v>212.0</v>
+      </c>
+      <c r="DE160" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -53170,12 +53648,15 @@
         <v>172.0</v>
       </c>
       <c r="DD161" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DE161" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -53496,12 +53977,15 @@
         <v>256.0</v>
       </c>
       <c r="DD162" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="DE162" t="n">
         <v>256.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -53823,11 +54307,14 @@
       </c>
       <c r="DD163" t="n">
         <v>142.0</v>
+      </c>
+      <c r="DE163" t="n">
+        <v>143.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -54149,11 +54636,14 @@
       </c>
       <c r="DD164" t="n">
         <v>341.0</v>
+      </c>
+      <c r="DE164" t="n">
+        <v>346.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -54474,12 +54964,15 @@
         <v>0.0</v>
       </c>
       <c r="DD165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -54800,12 +55293,15 @@
         <v>969.0</v>
       </c>
       <c r="DD166" t="n">
+        <v>969.0</v>
+      </c>
+      <c r="DE166" t="n">
         <v>969.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -55126,12 +55622,15 @@
         <v>65.0</v>
       </c>
       <c r="DD167" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="DE167" t="n">
         <v>65.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -55452,12 +55951,15 @@
         <v>0.0</v>
       </c>
       <c r="DD168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -55778,12 +56280,15 @@
         <v>944.0</v>
       </c>
       <c r="DD169" t="n">
+        <v>944.0</v>
+      </c>
+      <c r="DE169" t="n">
         <v>944.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -56104,12 +56609,15 @@
         <v>52.0</v>
       </c>
       <c r="DD170" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="DE170" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -56430,12 +56938,15 @@
         <v>0.0</v>
       </c>
       <c r="DD171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -56756,12 +57267,15 @@
         <v>290.0</v>
       </c>
       <c r="DD172" t="n">
+        <v>290.0</v>
+      </c>
+      <c r="DE172" t="n">
         <v>290.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -57082,12 +57596,15 @@
         <v>7524.0</v>
       </c>
       <c r="DD173" t="n">
+        <v>7524.0</v>
+      </c>
+      <c r="DE173" t="n">
         <v>7524.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -57408,12 +57925,15 @@
         <v>297.0</v>
       </c>
       <c r="DD174" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="DE174" t="n">
         <v>297.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -57735,11 +58255,14 @@
       </c>
       <c r="DD175" t="n">
         <v>259.0</v>
+      </c>
+      <c r="DE175" t="n">
+        <v>258.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -58060,12 +58583,15 @@
         <v>49.0</v>
       </c>
       <c r="DD176" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="DE176" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -58387,11 +58913,14 @@
       </c>
       <c r="DD177" t="n">
         <v>898.0</v>
+      </c>
+      <c r="DE177" t="n">
+        <v>901.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -58712,12 +59241,15 @@
         <v>2130.0</v>
       </c>
       <c r="DD178" t="n">
+        <v>2130.0</v>
+      </c>
+      <c r="DE178" t="n">
         <v>2130.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -59038,12 +59570,15 @@
         <v>283.0</v>
       </c>
       <c r="DD179" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="DE179" t="n">
         <v>283.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -59364,12 +59899,15 @@
         <v>0.0</v>
       </c>
       <c r="DD180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -59691,11 +60229,14 @@
       </c>
       <c r="DD181" t="n">
         <v>9859.0</v>
+      </c>
+      <c r="DE181" t="n">
+        <v>9870.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -60016,12 +60557,15 @@
         <v>106.0</v>
       </c>
       <c r="DD182" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="DE182" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -60342,12 +60886,15 @@
         <v>126.0</v>
       </c>
       <c r="DD183" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="DE183" t="n">
         <v>126.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -60668,12 +61215,15 @@
         <v>3506.0</v>
       </c>
       <c r="DD184" t="n">
+        <v>3506.0</v>
+      </c>
+      <c r="DE184" t="n">
         <v>3506.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -60994,12 +61544,15 @@
         <v>359.0</v>
       </c>
       <c r="DD185" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="DE185" t="n">
         <v>359.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -61320,12 +61873,15 @@
         <v>521.0</v>
       </c>
       <c r="DD186" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="DE186" t="n">
         <v>522.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -61646,12 +62202,15 @@
         <v>2691.0</v>
       </c>
       <c r="DD187" t="n">
+        <v>2691.0</v>
+      </c>
+      <c r="DE187" t="n">
         <v>2691.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -61972,12 +62531,15 @@
         <v>333.0</v>
       </c>
       <c r="DD188" t="n">
+        <v>333.0</v>
+      </c>
+      <c r="DE188" t="n">
         <v>333.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -62298,12 +62860,15 @@
         <v>274.0</v>
       </c>
       <c r="DD189" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="DE189" t="n">
         <v>275.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -62624,12 +63189,15 @@
         <v>1525.0</v>
       </c>
       <c r="DD190" t="n">
+        <v>1525.0</v>
+      </c>
+      <c r="DE190" t="n">
         <v>1525.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -62950,12 +63518,15 @@
         <v>0.0</v>
       </c>
       <c r="DD191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -63276,12 +63847,15 @@
         <v>160.0</v>
       </c>
       <c r="DD192" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="DE192" t="n">
         <v>162.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -63602,12 +64176,15 @@
         <v>365.0</v>
       </c>
       <c r="DD193" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="DE193" t="n">
         <v>365.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -63928,12 +64505,15 @@
         <v>0.0</v>
       </c>
       <c r="DD194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -64254,12 +64834,15 @@
         <v>172.0</v>
       </c>
       <c r="DD195" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="DE195" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -64580,12 +65163,15 @@
         <v>28.0</v>
       </c>
       <c r="DD196" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="DE196" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -64906,12 +65492,15 @@
         <v>248.0</v>
       </c>
       <c r="DD197" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="DE197" t="n">
         <v>248.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -65232,12 +65821,15 @@
         <v>707.0</v>
       </c>
       <c r="DD198" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="DE198" t="n">
         <v>707.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -65559,11 +66151,14 @@
       </c>
       <c r="DD199" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DE199" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -65884,12 +66479,15 @@
         <v>3.0</v>
       </c>
       <c r="DD200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DE200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -66211,11 +66809,14 @@
       </c>
       <c r="DD201" t="n">
         <v>394.0</v>
+      </c>
+      <c r="DE201" t="n">
+        <v>398.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -66536,12 +67137,15 @@
         <v>1751.0</v>
       </c>
       <c r="DD202" t="n">
+        <v>1751.0</v>
+      </c>
+      <c r="DE202" t="n">
         <v>1751.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -66862,12 +67466,15 @@
         <v>476.0</v>
       </c>
       <c r="DD203" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="DE203" t="n">
         <v>476.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -67188,12 +67795,15 @@
         <v>1570.0</v>
       </c>
       <c r="DD204" t="n">
+        <v>1575.0</v>
+      </c>
+      <c r="DE204" t="n">
         <v>1575.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -67514,12 +68124,15 @@
         <v>322.0</v>
       </c>
       <c r="DD205" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="DE205" t="n">
         <v>322.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -67840,12 +68453,15 @@
         <v>202.0</v>
       </c>
       <c r="DD206" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="DE206" t="n">
         <v>202.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -68167,11 +68783,14 @@
       </c>
       <c r="DD207" t="n">
         <v>254.0</v>
+      </c>
+      <c r="DE207" t="n">
+        <v>255.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -68492,12 +69111,15 @@
         <v>943.0</v>
       </c>
       <c r="DD208" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="DE208" t="n">
         <v>943.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -68819,11 +69441,14 @@
       </c>
       <c r="DD209" t="n">
         <v>233.0</v>
+      </c>
+      <c r="DE209" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -69144,12 +69769,15 @@
         <v>108.0</v>
       </c>
       <c r="DD210" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="DE210" t="n">
         <v>109.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -69470,12 +70098,15 @@
         <v>0.0</v>
       </c>
       <c r="DD211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -69796,12 +70427,15 @@
         <v>119.0</v>
       </c>
       <c r="DD212" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="DE212" t="n">
         <v>119.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -70123,11 +70757,14 @@
       </c>
       <c r="DD213" t="n">
         <v>646.0</v>
+      </c>
+      <c r="DE213" t="n">
+        <v>647.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -70448,12 +71085,15 @@
         <v>23.0</v>
       </c>
       <c r="DD214" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DE214" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -70774,12 +71414,15 @@
         <v>7669.0</v>
       </c>
       <c r="DD215" t="n">
+        <v>7669.0</v>
+      </c>
+      <c r="DE215" t="n">
         <v>7669.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -71100,12 +71743,15 @@
         <v>452.0</v>
       </c>
       <c r="DD216" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="DE216" t="n">
         <v>452.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -71427,11 +72073,14 @@
       </c>
       <c r="DD217" t="n">
         <v>1724.0</v>
+      </c>
+      <c r="DE217" t="n">
+        <v>1424.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -71752,12 +72401,15 @@
         <v>321.0</v>
       </c>
       <c r="DD218" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="DE218" t="n">
         <v>321.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -72078,12 +72730,15 @@
         <v>56.0</v>
       </c>
       <c r="DD219" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="DE219" t="n">
         <v>56.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -72404,12 +73059,15 @@
         <v>101.0</v>
       </c>
       <c r="DD220" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="DE220" t="n">
         <v>101.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -72730,12 +73388,15 @@
         <v>191.0</v>
       </c>
       <c r="DD221" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="DE221" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -73056,12 +73717,15 @@
         <v>354.0</v>
       </c>
       <c r="DD222" t="n">
+        <v>354.0</v>
+      </c>
+      <c r="DE222" t="n">
         <v>354.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -73382,12 +74046,15 @@
         <v>34246.0</v>
       </c>
       <c r="DD223" t="n">
+        <v>34412.0</v>
+      </c>
+      <c r="DE223" t="n">
         <v>34412.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -73709,11 +74376,14 @@
       </c>
       <c r="DD224" t="n">
         <v>8027.0</v>
+      </c>
+      <c r="DE224" t="n">
+        <v>8031.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -74034,12 +74704,15 @@
         <v>11.0</v>
       </c>
       <c r="DD225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="DE225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -74360,12 +75033,15 @@
         <v>0.0</v>
       </c>
       <c r="DD226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -74686,12 +75362,15 @@
         <v>23.0</v>
       </c>
       <c r="DD227" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DE227" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -75013,11 +75692,14 @@
       </c>
       <c r="DD228" t="n">
         <v>927.0</v>
+      </c>
+      <c r="DE228" t="n">
+        <v>928.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -75338,12 +76020,15 @@
         <v>7928.0</v>
       </c>
       <c r="DD229" t="n">
+        <v>7928.0</v>
+      </c>
+      <c r="DE229" t="n">
         <v>7928.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -75664,12 +76349,15 @@
         <v>0.0</v>
       </c>
       <c r="DD230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -75990,12 +76678,15 @@
         <v>180.0</v>
       </c>
       <c r="DD231" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="DE231" t="n">
         <v>180.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -76316,12 +77007,15 @@
         <v>640.0</v>
       </c>
       <c r="DD232" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="DE232" t="n">
         <v>640.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -76642,12 +77336,15 @@
         <v>1827.0</v>
       </c>
       <c r="DD233" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="DE233" t="n">
         <v>1830.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -76969,11 +77666,14 @@
       </c>
       <c r="DD234" t="n">
         <v>293.0</v>
+      </c>
+      <c r="DE234" t="n">
+        <v>292.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -77294,12 +77994,15 @@
         <v>107.0</v>
       </c>
       <c r="DD235" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="DE235" t="n">
         <v>107.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -77620,12 +78323,15 @@
         <v>0.0</v>
       </c>
       <c r="DD236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -77946,12 +78652,15 @@
         <v>1435.0</v>
       </c>
       <c r="DD237" t="n">
+        <v>1435.0</v>
+      </c>
+      <c r="DE237" t="n">
         <v>1435.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -78272,12 +78981,15 @@
         <v>9.0</v>
       </c>
       <c r="DD238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DE238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -78599,11 +79311,14 @@
       </c>
       <c r="DD239" t="n">
         <v>785.0</v>
+      </c>
+      <c r="DE239" t="n">
+        <v>788.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -78925,11 +79640,14 @@
       </c>
       <c r="DD240" t="n">
         <v>382.0</v>
+      </c>
+      <c r="DE240" t="n">
+        <v>386.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -79250,12 +79968,15 @@
         <v>455.0</v>
       </c>
       <c r="DD241" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="DE241" t="n">
         <v>455.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -79577,11 +80298,14 @@
       </c>
       <c r="DD242" t="n">
         <v>613.0</v>
+      </c>
+      <c r="DE242" t="n">
+        <v>614.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -79902,12 +80626,15 @@
         <v>0.0</v>
       </c>
       <c r="DD243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -80229,11 +80956,14 @@
       </c>
       <c r="DD244" t="n">
         <v>371.0</v>
+      </c>
+      <c r="DE244" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -80554,12 +81284,15 @@
         <v>46.0</v>
       </c>
       <c r="DD245" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DE245" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -80880,12 +81613,15 @@
         <v>0.0</v>
       </c>
       <c r="DD246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -81206,12 +81942,15 @@
         <v>276.0</v>
       </c>
       <c r="DD247" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="DE247" t="n">
         <v>276.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -81533,11 +82272,14 @@
       </c>
       <c r="DD248" t="n">
         <v>223.0</v>
+      </c>
+      <c r="DE248" t="n">
+        <v>148.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -81858,12 +82600,15 @@
         <v>5059.0</v>
       </c>
       <c r="DD249" t="n">
+        <v>5059.0</v>
+      </c>
+      <c r="DE249" t="n">
         <v>5059.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -82184,12 +82929,15 @@
         <v>787.0</v>
       </c>
       <c r="DD250" t="n">
+        <v>787.0</v>
+      </c>
+      <c r="DE250" t="n">
         <v>787.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -82510,12 +83258,15 @@
         <v>181.0</v>
       </c>
       <c r="DD251" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="DE251" t="n">
         <v>181.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -82836,12 +83587,15 @@
         <v>1054.0</v>
       </c>
       <c r="DD252" t="n">
+        <v>1054.0</v>
+      </c>
+      <c r="DE252" t="n">
         <v>1054.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -83162,12 +83916,15 @@
         <v>1326.0</v>
       </c>
       <c r="DD253" t="n">
+        <v>1326.0</v>
+      </c>
+      <c r="DE253" t="n">
         <v>1326.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -83488,12 +84245,15 @@
         <v>0.0</v>
       </c>
       <c r="DD254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DE254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -83814,12 +84574,15 @@
         <v>212.0</v>
       </c>
       <c r="DD255" t="n">
+        <v>212.0</v>
+      </c>
+      <c r="DE255" t="n">
         <v>212.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -84141,11 +84904,14 @@
       </c>
       <c r="DD256" t="n">
         <v>196.0</v>
+      </c>
+      <c r="DE256" t="n">
+        <v>193.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -84466,6 +85232,9 @@
         <v>174.0</v>
       </c>
       <c r="DD257" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="DE257" t="n">
         <v>174.0</v>
       </c>
     </row>
